--- a/src/Input_Files/duchy_names/great_britain_duchies.xlsx
+++ b/src/Input_Files/duchy_names/great_britain_duchies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\great_britain_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A037E38-4F16-4EEE-9A1C-6CF4BEBCB84F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33456765-49D2-42F5-8FB0-DAFE0C8E97E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="duchies" sheetId="1" r:id="rId1"/>
@@ -854,7 +854,177 @@
     <cellStyle name="Verklarende tekst" xfId="17" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Waarschuwingstekst" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1265,16 +1435,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1291,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1333,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1347,7 +1517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1361,7 +1531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1389,7 +1559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1403,7 +1573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -1417,7 +1587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1431,7 +1601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
@@ -1445,7 +1615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -1459,7 +1629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
@@ -1473,7 +1643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1487,7 +1657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1501,7 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -1515,7 +1685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
@@ -1529,7 +1699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
@@ -1543,7 +1713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
@@ -1557,7 +1727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
@@ -1571,7 +1741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
@@ -1585,7 +1755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>69</v>
       </c>
@@ -1599,7 +1769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>72</v>
       </c>
@@ -1613,7 +1783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
@@ -1627,7 +1797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>78</v>
       </c>
@@ -1641,7 +1811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>81</v>
       </c>
@@ -1655,7 +1825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>84</v>
       </c>
@@ -1669,7 +1839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>87</v>
       </c>
@@ -1683,30 +1853,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E86" s="1"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E114" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1 A27:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B27:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A22 A24:A26">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Input_Files/duchy_names/great_britain_duchies.xlsx
+++ b/src/Input_Files/duchy_names/great_britain_duchies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\great_britain_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E1215C-030F-414A-B107-6E5C19E7AB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F9F343-2E09-4C41-8D38-866CCAF55FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
   <si>
     <t>owner_id</t>
   </si>
@@ -301,6 +301,69 @@
   </si>
   <si>
     <t>Ulster</t>
+  </si>
+  <si>
+    <t>capital_county</t>
+  </si>
+  <si>
+    <t>title_succession_laws</t>
+  </si>
+  <si>
+    <t>rochester</t>
+  </si>
+  <si>
+    <t>middlesex</t>
+  </si>
+  <si>
+    <t>winchester</t>
+  </si>
+  <si>
+    <t>norwich</t>
+  </si>
+  <si>
+    <t>truro</t>
+  </si>
+  <si>
+    <t>wells</t>
+  </si>
+  <si>
+    <t>newcastle</t>
+  </si>
+  <si>
+    <t>montgomery</t>
+  </si>
+  <si>
+    <t>carnarvon</t>
+  </si>
+  <si>
+    <t>midlothian</t>
+  </si>
+  <si>
+    <t>lanark</t>
+  </si>
+  <si>
+    <t>argyll</t>
+  </si>
+  <si>
+    <t>perth</t>
+  </si>
+  <si>
+    <t>inverness</t>
+  </si>
+  <si>
+    <t>galway</t>
+  </si>
+  <si>
+    <t>dublin</t>
+  </si>
+  <si>
+    <t>clare</t>
+  </si>
+  <si>
+    <t>mccarthy_mor</t>
+  </si>
+  <si>
+    <t>down</t>
   </si>
 </sst>
 </file>
@@ -1279,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1290,11 +1353,13 @@
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1305,13 +1370,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1321,11 +1392,14 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1335,11 +1409,14 @@
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1349,11 +1426,14 @@
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1363,11 +1443,14 @@
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1377,11 +1460,14 @@
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1391,11 +1477,14 @@
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1405,11 +1494,14 @@
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1419,11 +1511,14 @@
       <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -1433,11 +1528,14 @@
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1447,11 +1545,14 @@
       <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
@@ -1461,11 +1562,14 @@
       <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -1475,11 +1579,14 @@
       <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
@@ -1489,11 +1596,14 @@
       <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1503,11 +1613,14 @@
       <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1517,11 +1630,14 @@
       <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -1531,11 +1647,14 @@
       <c r="C17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
@@ -1545,11 +1664,14 @@
       <c r="C18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
@@ -1559,11 +1681,14 @@
       <c r="C19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
@@ -1573,11 +1698,14 @@
       <c r="C20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
@@ -1587,11 +1715,14 @@
       <c r="C21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
@@ -1601,11 +1732,14 @@
       <c r="C22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>69</v>
       </c>
@@ -1615,11 +1749,14 @@
       <c r="C23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>72</v>
       </c>
@@ -1629,11 +1766,14 @@
       <c r="C24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
@@ -1643,11 +1783,14 @@
       <c r="C25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>78</v>
       </c>
@@ -1657,11 +1800,14 @@
       <c r="C26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>81</v>
       </c>
@@ -1671,11 +1817,14 @@
       <c r="C27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>84</v>
       </c>
@@ -1685,11 +1834,14 @@
       <c r="C28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>87</v>
       </c>
@@ -1699,15 +1851,19 @@
       <c r="C29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E86" s="1"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E114" s="1"/>
+      <c r="D29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F114" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1 A27:A1048576">
